--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1249340.023090532</v>
+        <v>-1252200.836882824</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>248.1409746548866</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>104.1383913127193</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>247.8520908519463</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>63.37597849096287</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>28.94258653733534</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>20.77115777661338</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>216.3770271837528</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>74.33802102853983</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="C5" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>263.7138800015063</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2792495146819521</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>9.837728992231295</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.2519699398848</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>30.35581875858473</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>89.62974020706544</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>117.6137402347498</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1151,7 @@
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814985</v>
+        <v>62.89466446671579</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>127.8724504177536</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493723</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.438182924131</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696365</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906603</v>
+        <v>23.79630926906614</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>136.2924232858445</v>
       </c>
       <c r="T9" t="n">
-        <v>192.4848946346714</v>
+        <v>192.4848946346715</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>83.14657757058734</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19160287035803</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>82.92672503751487</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.025116863428</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>196.1788263911949</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.1204706627545</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.808153205696883</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016459</v>
+        <v>150.4550614441521</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>21.23835815356608</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>72.26558381699921</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>147.7027769252535</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>125.3789405564518</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>32.0515855939262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>231.3119700802614</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.56327578339665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560529</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>102.041750371295</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,10 +3032,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541831</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652588</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.9099126163966</v>
+        <v>538.1222161136486</v>
       </c>
       <c r="C2" t="n">
-        <v>416.9099126163966</v>
+        <v>538.1222161136486</v>
       </c>
       <c r="D2" t="n">
-        <v>416.9099126163966</v>
+        <v>538.1222161136486</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163966</v>
+        <v>271.7445595464706</v>
       </c>
       <c r="F2" t="n">
-        <v>416.9099126163966</v>
+        <v>271.7445595464706</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>271.7445595464706</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757742</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917624</v>
@@ -4337,13 +4337,13 @@
         <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030612</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991325</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.514968335842</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>949.6652257507525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>949.6652257507525</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>949.6652257507525</v>
+        <v>804.4998726808267</v>
       </c>
       <c r="V2" t="n">
-        <v>949.6652257507525</v>
+        <v>804.4998726808267</v>
       </c>
       <c r="W2" t="n">
-        <v>683.2875691835745</v>
+        <v>538.1222161136486</v>
       </c>
       <c r="X2" t="n">
-        <v>416.9099126163966</v>
+        <v>538.1222161136486</v>
       </c>
       <c r="Y2" t="n">
-        <v>416.9099126163966</v>
+        <v>538.1222161136486</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253.9349598892537</v>
+        <v>129.4787088773614</v>
       </c>
       <c r="C3" t="n">
-        <v>253.9349598892537</v>
+        <v>129.4787088773614</v>
       </c>
       <c r="D3" t="n">
-        <v>253.9349598892537</v>
+        <v>129.4787088773614</v>
       </c>
       <c r="E3" t="n">
-        <v>94.69750488379822</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="F3" t="n">
-        <v>94.69750488379822</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="G3" t="n">
         <v>65.46256898749989</v>
@@ -4404,28 +4404,28 @@
         <v>65.46256898749989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>192.1295835699348</v>
       </c>
       <c r="L3" t="n">
-        <v>287.8512331313452</v>
+        <v>338.8740072302314</v>
       </c>
       <c r="M3" t="n">
-        <v>478.4519222278689</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4437,22 +4437,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742757</v>
+        <v>826.7196740428385</v>
       </c>
       <c r="V3" t="n">
-        <v>629.9105956742757</v>
+        <v>591.5675658110958</v>
       </c>
       <c r="W3" t="n">
-        <v>629.9105956742757</v>
+        <v>337.3302090828942</v>
       </c>
       <c r="X3" t="n">
-        <v>629.9105956742757</v>
+        <v>129.4787088773614</v>
       </c>
       <c r="Y3" t="n">
-        <v>422.1502969093218</v>
+        <v>129.4787088773614</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.5049944906706</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5688115627637</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="D4" t="n">
-        <v>343.5878441116391</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E4" t="n">
-        <v>343.5878441116391</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.413376528795</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551012</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375339</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640389</v>
+        <v>707.5003381197455</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640389</v>
+        <v>441.1226815525674</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640389</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="W4" t="n">
-        <v>829.3864837640389</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="X4" t="n">
-        <v>754.2975736342007</v>
+        <v>186.4381933466806</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.5049944906706</v>
+        <v>186.4381933466806</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571245</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899465</v>
+        <v>300.438579740743</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276843</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276843</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356496</v>
@@ -4565,13 +4565,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030605</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.421463841153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243026</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243026</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243026</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243026</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571245</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603.8090849092609</v>
+        <v>131.5183722823842</v>
       </c>
       <c r="C6" t="n">
-        <v>429.356055628134</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="D6" t="n">
-        <v>280.4216459668827</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="E6" t="n">
         <v>121.5812722902314</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>858.0464416374626</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>858.0464416374626</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>858.0464416374626</v>
+        <v>801.3675279810725</v>
       </c>
       <c r="W6" t="n">
-        <v>603.8090849092609</v>
+        <v>547.1301712528709</v>
       </c>
       <c r="X6" t="n">
-        <v>603.8090849092609</v>
+        <v>339.2786710473381</v>
       </c>
       <c r="Y6" t="n">
-        <v>603.8090849092609</v>
+        <v>131.5183722823842</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>386.0368194650771</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>217.1006365371702</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>66.98399712483445</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>66.98399712483445</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>66.98399712483445</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
         <v>36.32155393434482</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407079</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987222</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>700.5939555987222</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>445.9094673928354</v>
       </c>
       <c r="W7" t="n">
-        <v>788.477863438847</v>
+        <v>445.9094673928354</v>
       </c>
       <c r="X7" t="n">
-        <v>788.477863438847</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.6852842953168</v>
+        <v>355.3743762745875</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1741.160496658639</v>
+        <v>1987.052678512935</v>
       </c>
       <c r="C8" t="n">
-        <v>1372.197979718228</v>
+        <v>1987.052678512935</v>
       </c>
       <c r="D8" t="n">
-        <v>1253.396221905349</v>
+        <v>1628.786979906185</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.396221905349</v>
+        <v>1242.998727307941</v>
       </c>
       <c r="F8" t="n">
-        <v>842.4103171157415</v>
+        <v>832.0128225183332</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5096311797984</v>
+        <v>416.1121365823902</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970188</v>
+        <v>110.0463664996105</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229165</v>
+        <v>166.4989367229157</v>
       </c>
       <c r="K8" t="n">
-        <v>397.06017166775</v>
+        <v>397.0601716677484</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937583</v>
+        <v>719.993533093756</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721578</v>
+        <v>1110.988557721575</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999422</v>
+        <v>1512.924098999418</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830558</v>
+        <v>1879.125171830553</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271727</v>
+        <v>2157.168314271719</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257586</v>
+        <v>2317.794388257579</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="S8" t="n">
-        <v>2325.820119590849</v>
+        <v>2196.656028259776</v>
       </c>
       <c r="T8" t="n">
-        <v>2325.820119590849</v>
+        <v>1987.052678512935</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.22338400221</v>
+        <v>1987.052678512935</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.160496658639</v>
+        <v>1987.052678512935</v>
       </c>
       <c r="W8" t="n">
-        <v>1741.160496658639</v>
+        <v>1987.052678512935</v>
       </c>
       <c r="X8" t="n">
-        <v>1741.160496658639</v>
+        <v>1987.052678512935</v>
       </c>
       <c r="Y8" t="n">
-        <v>1741.160496658639</v>
+        <v>1987.052678512935</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3005198785846</v>
+        <v>836.5187757200355</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8474905974576</v>
+        <v>662.0657464389085</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9130809362064</v>
+        <v>513.1313367776572</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6756259307508</v>
+        <v>353.8938817722017</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1410679576358</v>
+        <v>207.3593237990866</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797257</v>
+        <v>70.55307842117655</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117659</v>
+        <v>70.55307842117655</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977965</v>
+        <v>223.9894559067839</v>
       </c>
       <c r="K9" t="n">
-        <v>529.1098899837357</v>
+        <v>392.1194303282866</v>
       </c>
       <c r="L9" t="n">
-        <v>801.5039302761504</v>
+        <v>664.5134706207007</v>
       </c>
       <c r="M9" t="n">
-        <v>1138.731795472815</v>
+        <v>1240.153950219434</v>
       </c>
       <c r="N9" t="n">
-        <v>1499.293723724152</v>
+        <v>1600.715878470769</v>
       </c>
       <c r="O9" t="n">
-        <v>1806.91765138504</v>
+        <v>1908.339806131657</v>
       </c>
       <c r="P9" t="n">
-        <v>2034.479907694156</v>
+        <v>2135.902062440772</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.82011959084</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160703</v>
+        <v>2188.151005160695</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661035</v>
+        <v>1993.721818661027</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505284</v>
+        <v>1909.735376670534</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.472709273541</v>
+        <v>1674.583268438792</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.127655869139</v>
+        <v>1420.34591171059</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.276155663606</v>
+        <v>1212.494411505057</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.515856898653</v>
+        <v>1004.734112740103</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>428.3105041113083</v>
+        <v>663.0026383785212</v>
       </c>
       <c r="C10" t="n">
-        <v>344.5461353865458</v>
+        <v>494.0664554506143</v>
       </c>
       <c r="D10" t="n">
-        <v>194.4294959742101</v>
+        <v>343.9498160382786</v>
       </c>
       <c r="E10" t="n">
-        <v>46.51640239181697</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="F10" t="n">
-        <v>46.51640239181697</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181697</v>
+        <v>196.0367224558855</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181681</v>
       </c>
       <c r="J10" t="n">
-        <v>65.8954080190957</v>
+        <v>65.89540801909533</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736022</v>
+        <v>227.5779039736015</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632622</v>
+        <v>490.0022680632611</v>
       </c>
       <c r="M10" t="n">
-        <v>777.0810884794059</v>
+        <v>777.0810884794043</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.76843262062</v>
+        <v>1062.768432620619</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257116</v>
+        <v>1310.630639257114</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325119</v>
+        <v>1499.198894325116</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718233</v>
+        <v>1546.31869971823</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718233</v>
+        <v>1546.31869971823</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.158269020056</v>
+        <v>1546.31869971823</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.158269020056</v>
+        <v>1322.964688947771</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.158269020056</v>
+        <v>1320.128170558178</v>
       </c>
       <c r="V10" t="n">
-        <v>1348.158269020056</v>
+        <v>1065.443682352291</v>
       </c>
       <c r="W10" t="n">
-        <v>1058.741098983096</v>
+        <v>1065.443682352291</v>
       </c>
       <c r="X10" t="n">
-        <v>830.7515480850782</v>
+        <v>1065.443682352291</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.9589689415481</v>
+        <v>844.6511032087609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5069,10 +5069,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532264</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2294.988274040713</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2075.386809063654</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.248478625014</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.258927726996</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4663485834661</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797729</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.3306680894883</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>820.3944851615814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>670.2778457492457</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E22" t="n">
-        <v>522.3647521668526</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>375.4748046689422</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>208.2787053838221</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1170.979132919728</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6014,22 +6014,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,61 +6443,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852888</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1051.622995973711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>882.686813045804</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6789,7 +6789,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384014</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,34 +6874,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580104</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345466</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.0944824954149</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7360,13 +7360,13 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
         <v>1483.79828551875</v>
@@ -7375,7 +7375,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7412,16 +7412,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,10 +7804,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L3" t="n">
-        <v>45.78351343583228</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544051</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446529</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>240.8208226283531</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>191.0505721332141</v>
+        <v>88.60395117702839</v>
       </c>
       <c r="R9" t="n">
-        <v>27.3816465586476</v>
+        <v>27.38164655864782</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>66.05265797438143</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22638,10 +22638,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>107.0801330490881</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>151.3716343604973</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.190246567156956e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>30.57122455749254</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>265.2846401830249</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>138.8202214113375</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>41.867880542176</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>55.21102825632957</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>147.0213775686981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>46.57372264691732</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.122657522500958e-12</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1048542.653050202</v>
+        <v>1048542.653050201</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1241877.555897482</v>
+        <v>1241877.555897481</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="D2" t="n">
         <v>184734.3982194637</v>
@@ -26329,10 +26329,10 @@
         <v>181607.9849302513</v>
       </c>
       <c r="H2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
-        <v>181607.9849302513</v>
+        <v>181607.9849302514</v>
       </c>
       <c r="J2" t="n">
         <v>181607.9849302513</v>
@@ -26347,13 +26347,13 @@
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194635</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228512997</v>
+        <v>331437.5228512977</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424097</v>
+        <v>563905.7843424117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.14336201246</v>
+        <v>99845.14336201196</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569553</v>
+        <v>147342.6769569558</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.831690603168681e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169912.65332604</v>
+        <v>169912.6533260399</v>
       </c>
       <c r="C4" t="n">
         <v>252122.0652631774</v>
       </c>
       <c r="D4" t="n">
-        <v>158321.5536878353</v>
+        <v>158321.5536878359</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26433,28 +26433,28 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680584</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="L4" t="n">
-        <v>19767.83547989932</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="M4" t="n">
         <v>19767.83547989931</v>
       </c>
       <c r="N4" t="n">
-        <v>19767.83547989932</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="O4" t="n">
-        <v>19767.83547989928</v>
+        <v>19767.83547989931</v>
       </c>
       <c r="P4" t="n">
         <v>19767.8354798993</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543595</v>
+        <v>88290.79546543579</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760721.5103166095</v>
+        <v>-761081.5933323271</v>
       </c>
       <c r="C6" t="n">
-        <v>-130435.47024798</v>
+        <v>-130435.4702479799</v>
       </c>
       <c r="D6" t="n">
-        <v>-393315.4737851073</v>
+        <v>-393315.4737851057</v>
       </c>
       <c r="E6" t="n">
-        <v>-495197.3054528713</v>
+        <v>-495232.043378309</v>
       </c>
       <c r="F6" t="n">
-        <v>68708.47888953848</v>
+        <v>68673.74096410279</v>
       </c>
       <c r="G6" t="n">
-        <v>68708.47888953843</v>
+        <v>68673.7409641027</v>
       </c>
       <c r="H6" t="n">
-        <v>68708.4788895384</v>
+        <v>68673.74096410273</v>
       </c>
       <c r="I6" t="n">
-        <v>68708.4788895383</v>
+        <v>68673.74096410273</v>
       </c>
       <c r="J6" t="n">
-        <v>-290.6755295756739</v>
+        <v>-325.4134550114399</v>
       </c>
       <c r="K6" t="n">
-        <v>68708.47888953837</v>
+        <v>68673.74096410266</v>
       </c>
       <c r="L6" t="n">
-        <v>-38042.69647636356</v>
+        <v>-38042.69647636308</v>
       </c>
       <c r="M6" t="n">
-        <v>-85540.2300713064</v>
+        <v>-85540.23007130699</v>
       </c>
       <c r="N6" t="n">
-        <v>61802.44688564884</v>
+        <v>61802.44688564891</v>
       </c>
       <c r="O6" t="n">
-        <v>61802.446885649</v>
+        <v>61802.44688564891</v>
       </c>
       <c r="P6" t="n">
-        <v>61802.44688564891</v>
+        <v>61802.44688564894</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203966</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896813</v>
+        <v>885.8132865896797</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977122</v>
+        <v>581.4550298977101</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.039613253960852e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202029</v>
+        <v>271.7582728202013</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519925</v>
+        <v>482.162213751994</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.741149896206</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019362</v>
+        <v>591.2532582019383</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896206</v>
+        <v>317.7411498962041</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019362</v>
+        <v>591.2532582019383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896206</v>
+        <v>317.7411498962039</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019362</v>
+        <v>591.2532582019383</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>48.62930188650292</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>3.29607702633615</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,16 +27464,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>94.26910196443808</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>127.844315241599</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.837318695813053</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.54475050117124</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>163.288830803864</v>
       </c>
       <c r="C5" t="n">
         <v>101.5590117695013</v>
       </c>
       <c r="D5" t="n">
-        <v>90.9691616191767</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>250.8689183636005</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590676</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>162.8707699960844</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3931105155161561</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>136.5278482799619</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>136.0799151819717</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>237.0693013859332</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>10.29351965143432</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177534</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>93.83392671696367</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>142.6694535736059</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>236.5033802905616</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>84.32009606111296</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.4132560413785</v>
+        <v>107.4132560413786</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>105.4699075169635</v>
+        <v>105.4699075169637</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.1788263911949</v>
       </c>
       <c r="T10" t="n">
-        <v>221.1204706627545</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2319001807608</v>
+        <v>283.4237469750639</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,10 +28096,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.133261760295336e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>9.161664530469791e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.751381063403296e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29752,10 +29752,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29983,13 +29983,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,16 +31045,16 @@
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
         <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
         <v>433.4580399459292</v>
@@ -31063,25 +31063,25 @@
         <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
         <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
         <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31224,19 +31224,19 @@
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
         <v>0.06039885381339136</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.56105843855148</v>
+        <v>3.561058438551473</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381535</v>
+        <v>36.46968973381529</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522561</v>
+        <v>137.2877054522558</v>
       </c>
       <c r="J8" t="n">
-        <v>302.2403836490089</v>
+        <v>302.2403836490084</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528931</v>
+        <v>452.9799873528924</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417131</v>
+        <v>561.9617295417121</v>
       </c>
       <c r="M8" t="n">
-        <v>625.290702548303</v>
+        <v>625.2907025483019</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368374</v>
+        <v>635.4085598368363</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884912</v>
+        <v>599.99828498849</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867513</v>
+        <v>512.0846547867504</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561264</v>
+        <v>384.5542494561257</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406596</v>
+        <v>223.6923371406592</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849193</v>
+        <v>81.14761916849179</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475911</v>
+        <v>15.58853331475908</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841184</v>
+        <v>0.2848846750841178</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079692</v>
+        <v>1.905334239079689</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953282</v>
+        <v>18.40151751953278</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234905</v>
+        <v>65.60032358234893</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474371</v>
+        <v>180.0123019474367</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657764</v>
+        <v>307.6696959657759</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247375</v>
+        <v>413.6998750247368</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913763</v>
+        <v>482.7682411913754</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139766</v>
+        <v>495.5456800139756</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059476</v>
+        <v>453.3274845059468</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730335</v>
+        <v>363.8352723730328</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.2142442726989</v>
+        <v>243.2142442726985</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053163</v>
+        <v>118.2978574053161</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799338</v>
+        <v>35.39074781799332</v>
       </c>
       <c r="T9" t="n">
-        <v>7.679834060150159</v>
+        <v>7.679834060150145</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815587</v>
+        <v>0.1253509367815585</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719097</v>
+        <v>1.597368221719094</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401162</v>
+        <v>14.2020556440116</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587977</v>
+        <v>48.03721888587969</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755402</v>
+        <v>112.93393327554</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051824</v>
+        <v>185.585144305182</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817647</v>
+        <v>237.4850899817643</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191126</v>
+        <v>250.3947295191122</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108871</v>
+        <v>244.4409025108867</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753503</v>
+        <v>225.7807373753499</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522806</v>
+        <v>193.1944256522802</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750419</v>
+        <v>133.7578062750416</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020594</v>
+        <v>71.82348386020581</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577735</v>
+        <v>27.8377716457773</v>
       </c>
       <c r="T10" t="n">
-        <v>6.82511876552705</v>
+        <v>6.825118765527038</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013268</v>
+        <v>0.08712917573013253</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31856,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,10 +32090,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33509,10 +33509,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
         <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
         <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
         <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L3" t="n">
-        <v>194.0102040017885</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966409</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223227</v>
+        <v>121.1944791223221</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079126</v>
+        <v>232.8901363079118</v>
       </c>
       <c r="L8" t="n">
-        <v>326.1953145717259</v>
+        <v>326.1953145717249</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210303</v>
+        <v>394.9444693210291</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402465</v>
+        <v>405.9954962402454</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668044</v>
+        <v>369.9000735668033</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314818</v>
+        <v>280.8516590314809</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.2485595816769</v>
+        <v>162.2485595816762</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527465</v>
+        <v>8.106799326527067</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.17467528077037</v>
+        <v>179.2657106211789</v>
       </c>
       <c r="K9" t="n">
-        <v>434.293494003996</v>
+        <v>169.8282569914169</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448634</v>
+        <v>275.1454952448626</v>
       </c>
       <c r="M9" t="n">
-        <v>340.6342072693579</v>
+        <v>581.4550298977101</v>
       </c>
       <c r="N9" t="n">
-        <v>364.2039679306432</v>
+        <v>364.2039679306423</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615031</v>
+        <v>310.7312400615023</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587032</v>
+        <v>229.8608649587026</v>
       </c>
       <c r="Q9" t="n">
-        <v>294.2830423198915</v>
+        <v>191.8364213637054</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.5747531588674</v>
+        <v>19.5747531588672</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792995</v>
+        <v>163.3156524792992</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420809</v>
+        <v>265.0751152420804</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809532</v>
+        <v>289.9786064809527</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901157</v>
+        <v>288.5730748901153</v>
       </c>
       <c r="O10" t="n">
-        <v>250.36586528939</v>
+        <v>250.3658652893896</v>
       </c>
       <c r="P10" t="n">
-        <v>190.472984917174</v>
+        <v>190.4729849171737</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334749</v>
+        <v>47.59576302334726</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35504,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,10 +35738,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096334</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
